--- a/Manage网页测试用例.xlsx
+++ b/Manage网页测试用例.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LiselfTraining\MyJavaTraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,44 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在查询框输入框内不输入任何关键字
-2、点击查询按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在查询框输入标题中输入英文字母“q”
-2、点击查询按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新增按钮
-2、不填写任何信息，点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新增按钮
-2、不填写任何信息，点击取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新增按钮
-2、Title：为空；Content：缅怀革命烈士，向未来出发；PublishDate:2018/9/27 12:30:24；不勾选Is Show，点击保存按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、显示出的新闻条数与内容与数据库一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,17 +63,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、在查询框输入关键字“应采儿”
-2、点击查询按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2、新闻列表显示与应采儿相关的新闻且条数和内容与数据库里的记录一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在查询框中输入100个字符
-2、输入第101个字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,32 +72,293 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、新增页面的Title/Content/PublishedDate/Is Show均为必填项</t>
+    <t>1、数据库里存在10条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新增页面的Title/Content/PublishedDate均为必填项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询输入框支持最多输入100字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在首页的查询框输入框内不输入任何关键字
+2、点击查询按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在首页的查询框输入标题中输入英文字母“q”
+2、点击查询按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在首页的查询框输入关键字“应采儿”
+2、点击查询按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在首页的查询框中输入100个字符
+2、输入第101个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击首页的新增按钮
+2、不填写任何信息，点击保存
+3、不填写任何信息，点击取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页-查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增页面-标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击首页新增按钮进入新增页面
+2、新增页面的Title为必填项
+3、标题Title输入框支持最多输入100字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、页面显示：保存失败，Title不得为空
+2、光标停留在最后一个字后面
+3、输入框无法显示第101个字符
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、页面显示：保存失败，Content不得为空
+2、光标停留在最后一个字后面
+3、输入框无法显示第2001个字符
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增页面-正文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、新闻列表显示出10条数据,且内容与数据库里的记录完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击首页新增按钮进入新增页面
+2、新增页面的Content为必填项
+3、正文Content输入框支持最多输入2000字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击首页新增按钮进入新增页面
+2、新增页面的PublishedDate为必填项
+3、PublishedDate的格式要求为:YY/MM/DD HH/MM/SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：为空；Content：缅怀革命烈士，向未来出发；PublishDate:2018/9/27 12:30:24；不勾选Is Show，点击保存按钮
+2、在标题Title输入框中输入100个字符
+3、输入第101个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增页面-发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增页面-显示状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击首页新增按钮进入新增页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：缅怀；Content：缅怀革命烈士，向未来出发；PublishDate:为空；不勾选Is Show，点击保存按钮
+2、PublishDate:2018-9-27;2018/9/27;2018/9/27 09:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：缅怀革命烈士；Content：为空；PublishDate:2018/9/27 12:30:24；勾选Is Show，点击保存按钮
+2、在正文Content输入框中输入2000个字符
+3、输入第2001个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：输入99字符；
+Content：输入1999字符；
+PublishDate:输入2018/10/8 16:08:24；
+不勾选Is Show，点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、页面显示：保存失败，PublishedDate不得为空
+2、页面显示：保存失败，PublishedDate格式为:YY/MM/DD HH/MM/SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击首页新增按钮进入新增页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页-新闻列表-删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：好；
+Content：真；
+PublishDate:2018/10/8 00:00:00；
+勾选Is Show，点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1、首页的新闻列表最后一行显示添加的记录
+1.2、数据库newsLists列表中存在添加的记录,且Status显示为Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1、首页的新闻列表最后一行显示添加的记录
+1.2、标题显示不完整用…代替
+1.3、数据库newsLists列表中存在添加的记录,且Status显示为N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页-新闻列表-编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面-保存&amp;取消</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.1、跳转至新增页面；
 1.2、Title/Content/PublishedDate/Is Show标题前存在必填项标识
-2、页面显示：保存失败，请输入新增内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、跳转至新增页面；
-2、页面显示：保存失败，Title不得为空
+2、页面显示：保存失败，请输入新增内容
+3、跳转回首页,新闻列表里没有增添任何纪录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、不修改任何内容,点击保存
+2、不修改任何内容,点击取消
+3、清空所有已存在的数据,点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、页面显示:是否确认删除?
+2、新闻列表和数据库newsLists列表里的第1条数据被删除
+3、页面显示:是否确认删除?
+4、第20条数据仍然存在于新闻列表和数据库newsLists列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据库里存在20条新闻数据
+2、新闻列表里的每条新闻都匹配一个删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中新闻列表的第1条新闻,点击删除按钮
+2、点击删除提示框的确认按钮
+3、再选中新闻列表的第20条新闻,点击删除按钮
+4、点击删除提示框的取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中新闻列表的第1条新闻,点击编辑按钮
+2、点击新闻列表的第1条新闻的标题链接
+3、检查编辑页面的Title/Content/PublishedDate/IsShow的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2、进入第1条新闻的编辑页面
+3、与数据库里第1条新闻的数据一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据库里存在20条新闻数据
+2、新闻列表里的每条新闻都匹配一个编辑按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击新闻列表里的第20条新闻的编辑按钮进入编辑页面
+2、编辑页面的Title/Content/PublishedDate均不得为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2、跳转回首页,新闻列表和数据库newsLists列表里的第20条数据没有改动
+3、页面显示：编辑失败，必填项不得为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面-标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面-正文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击新闻列表里的第2条新闻的编辑按钮进入编辑页面
+2、编辑页面的Title不得为空
+3、标题Title输入框支持最多输入100字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击新闻列表里的第19条新闻的编辑按钮进入编辑页面
+2、新增页面的Content为必填项
+3、正文Content输入框支持最多输入2000字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、页面显示：编辑失败，Title不得为空
+2、输入框无法显示第101个字符
+3、保存成功,新闻列表和数据库newsLists列表里第2条新闻的标题修改为输入的100个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面-发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击新闻列表里的第10条新闻的编辑按钮进入编辑页面
+2、新增页面的PublishedDate为必填项
+3、PublishedDate的格式要求为:YY/MM/DD HH/MM/SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Content：删除原有数据，其它必填项内容不变,点击保存按钮
+2、在正文Content输入框中输入2001个字符
+3、在正文Content输入框中输入2000个字符,点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：删除原有数据，其它必填项内容不变,点击保存按钮
+2、在标题Title输入框中输入101个字符
+3、在标题Title输入框中输入100个字符,点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、PublishedDate：删除原有数据，其它必填项内容不变,点击保存按钮
+2、PublishDate输入:2018-9-27;2018/9/27;2018/9/27 09:08…,点击保存按钮
+3、PublishDate输入:2018/10/8 19:22:00,点击保存按钮
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、查询输入框支持最多输入100字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、跳转至新增页面；
-2、页面跳转回管理首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、数据库里存在10条记录</t>
+    <t>1、页面显示：编辑失败，Content不得为空
+2、输入框无法显示第2001个字符
+3、保存成功,新闻列表和数据库newsLists列表里第19条新闻的内容修改为输入的2000个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、页面显示：编辑失败，PublishedDate不得为空
+2、页面显示：编辑失败，PublishedDate格式为:YY/MM/DD HH/MM/SS
+3、保存成功,新闻列表和数据库newsLists列表里第10条新闻的发布时间修改为2018/10/8 19:22:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,11 +405,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,16 +723,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="42.375" customWidth="1"/>
     <col min="5" max="5" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -544,33 +762,33 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -578,16 +796,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -595,64 +813,266 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>23</v>
       </c>
     </row>

--- a/Manage网页测试用例.xlsx
+++ b/Manage网页测试用例.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LiselfTraining\MyJavaTraining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Liself Projects\MyJavaTraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、数据库里存在10条记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、新增页面的Title/Content/PublishedDate均为必填项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,110 +80,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、在首页的查询框输入框内不输入任何关键字
-2、点击查询按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在首页的查询框输入标题中输入英文字母“q”
-2、点击查询按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在首页的查询框输入关键字“应采儿”
-2、点击查询按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在首页的查询框中输入100个字符
-2、输入第101个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击首页的新增按钮
-2、不填写任何信息，点击保存
-3、不填写任何信息，点击取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页-查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页-新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增页面-标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、点击首页新增按钮进入新增页面
-2、新增页面的Title为必填项
-3、标题Title输入框支持最多输入100字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、页面显示：保存失败，Title不得为空
-2、光标停留在最后一个字后面
-3、输入框无法显示第101个字符
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、页面显示：保存失败，Content不得为空
-2、光标停留在最后一个字后面
-3、输入框无法显示第2001个字符
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增页面-正文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2、新闻列表显示出10条数据,且内容与数据库里的记录完全一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击首页新增按钮进入新增页面
-2、新增页面的Content为必填项
-3、正文Content输入框支持最多输入2000字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击首页新增按钮进入新增页面
-2、新增页面的PublishedDate为必填项
-3、PublishedDate的格式要求为:YY/MM/DD HH/MM/SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：为空；Content：缅怀革命烈士，向未来出发；PublishDate:2018/9/27 12:30:24；不勾选Is Show，点击保存按钮
-2、在标题Title输入框中输入100个字符
-3、输入第101个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增页面-发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增页面-显示状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击首页新增按钮进入新增页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、Title：缅怀；Content：缅怀革命烈士，向未来出发；PublishDate:为空；不勾选Is Show，点击保存按钮
 2、PublishDate:2018-9-27;2018/9/27;2018/9/27 09:08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：缅怀革命烈士；Content：为空；PublishDate:2018/9/27 12:30:24；勾选Is Show，点击保存按钮
-2、在正文Content输入框中输入2000个字符
-3、输入第2001个字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,44 +109,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、点击首页新增按钮进入新增页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页-新闻列表-删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：好；
-Content：真；
-PublishDate:2018/10/8 00:00:00；
-勾选Is Show，点击保存按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1、首页的新闻列表最后一行显示添加的记录
-1.2、数据库newsLists列表中存在添加的记录,且Status显示为Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1、首页的新闻列表最后一行显示添加的记录
-1.2、标题显示不完整用…代替
-1.3、数据库newsLists列表中存在添加的记录,且Status显示为N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页-新闻列表-编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑页面-保存&amp;取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1、跳转至新增页面；
-1.2、Title/Content/PublishedDate/Is Show标题前存在必填项标识
-2、页面显示：保存失败，请输入新增内容
-3、跳转回首页,新闻列表里没有增添任何纪录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,51 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、页面显示:是否确认删除?
-2、新闻列表和数据库newsLists列表里的第1条数据被删除
-3、页面显示:是否确认删除?
-4、第20条数据仍然存在于新闻列表和数据库newsLists列表中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、数据库里存在20条新闻数据
-2、新闻列表里的每条新闻都匹配一个删除按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、选中新闻列表的第1条新闻,点击删除按钮
-2、点击删除提示框的确认按钮
-3、再选中新闻列表的第20条新闻,点击删除按钮
-4、点击删除提示框的取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、选中新闻列表的第1条新闻,点击编辑按钮
-2、点击新闻列表的第1条新闻的标题链接
-3、检查编辑页面的Title/Content/PublishedDate/IsShow的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2、进入第1条新闻的编辑页面
-3、与数据库里第1条新闻的数据一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、数据库里存在20条新闻数据
-2、新闻列表里的每条新闻都匹配一个编辑按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新闻列表里的第20条新闻的编辑按钮进入编辑页面
-2、编辑页面的Title/Content/PublishedDate均不得为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2、跳转回首页,新闻列表和数据库newsLists列表里的第20条数据没有改动
-3、页面显示：编辑失败，必填项不得为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑页面-标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,28 +130,6 @@
     <t>1、点击新闻列表里的第2条新闻的编辑按钮进入编辑页面
 2、编辑页面的Title不得为空
 3、标题Title输入框支持最多输入100字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新闻列表里的第19条新闻的编辑按钮进入编辑页面
-2、新增页面的Content为必填项
-3、正文Content输入框支持最多输入2000字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、页面显示：编辑失败，Title不得为空
-2、输入框无法显示第101个字符
-3、保存成功,新闻列表和数据库newsLists列表里第2条新闻的标题修改为输入的100个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑页面-发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新闻列表里的第10条新闻的编辑按钮进入编辑页面
-2、新增页面的PublishedDate为必填项
-3、PublishedDate的格式要求为:YY/MM/DD HH/MM/SS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -350,15 +152,292 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>编辑页面-发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击新闻列表里的第1条新闻的编辑按钮进入编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增页面-发布状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面-发布状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：为空；Content：缅怀革命烈士，向未来出发；PublishDate:2018/9/27 12:30:24；不勾选Is Show，点击保存按钮
+2、在标题Title输入框中输入101个字符
+3、在标题Title输入框中输入100个字符，点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：缅怀革命烈士；Content：为空；PublishDate:2018/9/27 12:30:24；勾选Is Show，点击保存按钮
+2、在正文Content输入框中输入2001个字符
+3、在正文Content输入框中输入2000个字符，点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中新闻列表的第1条新闻,点击编辑按钮
+2、检查编辑页面的Title/Content/PublishedDate/IsShow的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、进入第1条新闻的编辑页面
+2、与数据库里第1条新闻的数据一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、页面显示：编辑失败，Title不得为空
+2、输入框无法显示第101个字符
+3.1、保存成功,新闻列表和数据库newsLists列表里第2条新闻的标题修改为输入的100个字符
+3.2、新闻列表里的标题显示不完整用…代替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1、保存成功,新闻列表和数据库newsLists列表里第1条新闻的标题、内容、发布时间，发布状态与编辑的一致
+1.2、新闻列表里的标题显示不完整用…代替
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、新闻列表显示出26条数据,且内容与数据库里的记录完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据库里存在26条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据库里存在26条新闻数据
+2、新闻列表里的每条新闻都匹配一个删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中新闻列表的第1条新闻,点击删除按钮
+2、点击删除提示框的确认按钮
+3、再选中新闻列表的第26条新闻,点击删除按钮
+4、点击删除提示框的取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、页面显示:是否确认删除?
+2、新闻列表和数据库newsLists列表里的第1条数据被删除
+3、页面显示:是否确认删除?
+4、第26条数据仍然存在于新闻列表和数据库newsLists列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据库里存在26条新闻数据
+2、新闻列表里的每条新闻都匹配一个编辑按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击新闻列表里的第26条新闻的编辑按钮进入编辑页面
+2、编辑页面的Title/Content/PublishedDate均不得为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击新闻列表里的第25条新闻的编辑按钮进入编辑页面
+2、新增页面的Content为必填项
+3、正文Content输入框支持最多输入2000字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、页面显示：编辑失败，Content不得为空
 2、输入框无法显示第2001个字符
-3、保存成功,新闻列表和数据库newsLists列表里第19条新闻的内容修改为输入的2000个字符</t>
+3、保存成功,新闻列表和数据库newsLists列表里第25条新闻的内容修改为输入的2000个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击新闻列表里的第13条新闻的编辑按钮进入编辑页面
+2、新增页面的PublishedDate为必填项
+3、PublishedDate的格式要求为:YY/MM/DD HH/MM/SS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、页面显示：编辑失败，PublishedDate不得为空
 2、页面显示：编辑失败，PublishedDate格式为:YY/MM/DD HH/MM/SS
-3、保存成功,新闻列表和数据库newsLists列表里第10条新闻的发布时间修改为2018/10/8 19:22:00</t>
+3、保存成功,新闻列表和数据库newsLists列表里第13条新闻的发布时间修改为2018/10/8 19:22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击新闻列表里的第26条新闻的编辑按钮进入编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：重新输入99字符；
+Content：重新输入1999字符；
+PublishDate:2018/10/8 22:21:24；
+Is Show:当前状态是勾选则去勾选，当前状态未勾选则勾选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：真；
+Content：!@#$%^&amp;*()_+ ；
+PublishDate:2018/10/8 00:00:00；
+勾选Is Show，点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：P；
+Content：1；
+PublishDate:2018/10/9 00:00:00；
+勾选Is Show，点击保存按钮Is Show:当前状态是勾选则去勾选，当前状态未勾选则勾选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、保存成功,新闻列表和数据库newsLists列表里第1条新闻的标题、内容、发布时间，发布状态与编辑的一致
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理首页-查询</t>
+  </si>
+  <si>
+    <t>1、在管理首页的查询框输入框内不输入任何关键字
+2、点击查询按钮</t>
+  </si>
+  <si>
+    <t>1、在管理首页的查询框输入标题中输入英文字母“q”
+2、点击查询按钮</t>
+  </si>
+  <si>
+    <t>1、在管理首页的查询框输入关键字“应采儿”
+2、点击查询按钮</t>
+  </si>
+  <si>
+    <t>1、在管理首页的查询框中输入100个字符
+2、输入第101个字符</t>
+  </si>
+  <si>
+    <t>管理首页-新增</t>
+  </si>
+  <si>
+    <t>1、点击管理首页的新增按钮
+2、不填写任何信息，点击保存
+3、不填写任何信息，点击取消</t>
+  </si>
+  <si>
+    <t>1.1、跳转至新增页面；
+1.2、Title/Content/PublishedDate/Is Show标题前存在必填项标识
+2、页面显示：保存失败，请输入新增内容
+3、跳转回管理首页,新闻列表里没有增添任何纪录</t>
+  </si>
+  <si>
+    <t>1、点击管理首页新增按钮进入新增页面
+2、新增页面的Title为必填项
+3、标题Title输入框支持最多输入100字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、页面显示：保存失败，Title不得为空
+2、输入框无法显示第101个字符
+3.1、管理首页的新闻列表和数据库的newsLists列表的最后一行显示添加的记录
+3.2、新闻列表内的标题显示不完整用…代替
+</t>
+  </si>
+  <si>
+    <t>1、点击管理首页新增按钮进入新增页面
+2、新增页面的Content为必填项
+3、正文Content输入框支持最多输入2000字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、页面显示：保存失败，Content不得为空
+2、输入框无法显示第2001个字符
+3.1、管理首页的新闻列表和数据库的newsLists列表的最后一行显示添加的记录
+3.2、点击新增数据的编辑按钮，Content显示与添加的内容一致
+</t>
+  </si>
+  <si>
+    <t>1、点击管理首页新增按钮进入新增页面
+2、新增页面的PublishedDate为必填项
+3、PublishedDate的格式要求为:YY/MM/DD HH/MM/SS</t>
+  </si>
+  <si>
+    <t>1、点击管理首页新增按钮进入新增页面</t>
+  </si>
+  <si>
+    <t>1.1、管理首页的新闻列表最后一行显示添加的记录
+1.2、新闻列表里的标题显示不完整用…代替
+1.3、数据库newsLists列表中存在添加的记录,且Status显示为N</t>
+  </si>
+  <si>
+    <t>1.1、管理首页的新闻列表最后一行显示添加的记录
+1.2、数据库newsLists列表中存在添加的记录,且Status显示为Y</t>
+  </si>
+  <si>
+    <t>管理首页-新闻列表-删除</t>
+  </si>
+  <si>
+    <t>管理首页-新闻列表-编辑</t>
+  </si>
+  <si>
+    <t>1-2、跳转回管理首页,新闻列表和数据库newsLists列表里的第26条数据没有改动
+3、页面显示：编辑失败，必填项不得为空</t>
+  </si>
+  <si>
+    <t>管理首页-上一页</t>
+  </si>
+  <si>
+    <t>管理首页-查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据库里存在26条新闻数据
+2、新闻列表每一页显示10条数据，一共有3页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、当前页面是新闻列表的第一页
+2、点击“下一页”按钮进入新闻列表第二页，再点击“上一页”按钮
+3、点击“下一页”按钮至第三页，连续点击2次“上一页”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、“上一页”按钮置灰
+2、回到新闻列表第一页
+3、页面和页码刷新2次至第一页，“上一页”按钮置灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理首页-下一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、当前页面是新闻列表的第三页
+2、点击“上一页”按钮进入新闻列表第二页，再点击“下一页”按钮
+3、点击“上一页”按钮至第一页，连续点击2次“下一页”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、“下一页”按钮置灰
+2、回到新闻列表第三页
+3、页面和页码刷新2次至第单页，“下一页”按钮置灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据库里新闻标题或内容包含关键字“一”的数据有12条
+2、数据库里新闻标题或内容包含关键字“，”的数据有11条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在管理首页查询输入框里输入关键字“一”，点击查询按钮
+2、点击“下一页”
+3、在管理首页查询输入框里输入关键字“，”，不点击查询按钮，直接点击上一页
+4、点击查询按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新闻列表第一页显示10条新闻标题或内容包含关键字“一”的数据
+2、显示2条新闻标题或内容包含关键字“一”的数据
+3、与预期结果1保持一致
+4、显示10条新闻标题或内容包含关键字“，”的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理首页-查询-上/下一页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +493,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,20 +807,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="42.375" customWidth="1"/>
+    <col min="4" max="4" width="47.125" customWidth="1"/>
     <col min="5" max="5" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -758,321 +841,369 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="108" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>22</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
     </row>

--- a/Manage网页测试用例.xlsx
+++ b/Manage网页测试用例.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,36 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、数据库里不存在标题包含q关键字的新闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2、列表消失，页面显示“您查询的记录不存在”
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、数据库里存在标题包含“应采儿”关键字的新闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、新闻列表显示与应采儿相关的新闻且条数和内容与数据库里的记录一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、光标停留在最后一个字后面
-2、输入框无法显示第101个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、新增页面的Title/Content/PublishedDate均为必填项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、查询输入框支持最多输入100字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增页面-标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,33 +59,11 @@
   </si>
   <si>
     <t>新增页面-发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：缅怀；Content：缅怀革命烈士，向未来出发；PublishDate:为空；不勾选Is Show，点击保存按钮
-2、PublishDate:2018-9-27;2018/9/27;2018/9/27 09:08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：输入99字符；
-Content：输入1999字符；
-PublishDate:输入2018/10/8 16:08:24；
-不勾选Is Show，点击保存按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、页面显示：保存失败，PublishedDate不得为空
 2、页面显示：保存失败，PublishedDate格式为:YY/MM/DD HH/MM/SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑页面-保存&amp;取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、不修改任何内容,点击保存
-2、不修改任何内容,点击取消
-3、清空所有已存在的数据,点击保存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,33 +108,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增页面-发布状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑页面-发布状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：为空；Content：缅怀革命烈士，向未来出发；PublishDate:2018/9/27 12:30:24；不勾选Is Show，点击保存按钮
-2、在标题Title输入框中输入101个字符
-3、在标题Title输入框中输入100个字符，点击保存按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、Title：缅怀革命烈士；Content：为空；PublishDate:2018/9/27 12:30:24；勾选Is Show，点击保存按钮
 2、在正文Content输入框中输入2001个字符
 3、在正文Content输入框中输入2000个字符，点击保存按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、选中新闻列表的第1条新闻,点击编辑按钮
-2、检查编辑页面的Title/Content/PublishedDate/IsShow的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、进入第1条新闻的编辑页面
-2、与数据库里第1条新闻的数据一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,43 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2、新闻列表显示出26条数据,且内容与数据库里的记录完全一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、数据库里存在26条记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、数据库里存在26条新闻数据
-2、新闻列表里的每条新闻都匹配一个删除按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、选中新闻列表的第1条新闻,点击删除按钮
-2、点击删除提示框的确认按钮
-3、再选中新闻列表的第26条新闻,点击删除按钮
-4、点击删除提示框的取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、页面显示:是否确认删除?
-2、新闻列表和数据库newsLists列表里的第1条数据被删除
-3、页面显示:是否确认删除?
-4、第26条数据仍然存在于新闻列表和数据库newsLists列表中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、数据库里存在26条新闻数据
-2、新闻列表里的每条新闻都匹配一个编辑按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新闻列表里的第26条新闻的编辑按钮进入编辑页面
-2、编辑页面的Title/Content/PublishedDate均不得为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、点击新闻列表里的第25条新闻的编辑按钮进入编辑页面
 2、新增页面的Content为必填项
 3、正文Content输入框支持最多输入2000字</t>
@@ -275,13 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、Title：真；
-Content：!@#$%^&amp;*()_+ ；
-PublishDate:2018/10/8 00:00:00；
-勾选Is Show，点击保存按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、Title：P；
 Content：1；
 PublishDate:2018/10/9 00:00:00；
@@ -294,25 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理首页-查询</t>
-  </si>
-  <si>
-    <t>1、在管理首页的查询框输入框内不输入任何关键字
-2、点击查询按钮</t>
-  </si>
-  <si>
-    <t>1、在管理首页的查询框输入标题中输入英文字母“q”
-2、点击查询按钮</t>
-  </si>
-  <si>
-    <t>1、在管理首页的查询框输入关键字“应采儿”
-2、点击查询按钮</t>
-  </si>
-  <si>
-    <t>1、在管理首页的查询框中输入100个字符
-2、输入第101个字符</t>
-  </si>
-  <si>
     <t>管理首页-新增</t>
   </si>
   <si>
@@ -325,11 +190,6 @@
 1.2、Title/Content/PublishedDate/Is Show标题前存在必填项标识
 2、页面显示：保存失败，请输入新增内容
 3、跳转回管理首页,新闻列表里没有增添任何纪录</t>
-  </si>
-  <si>
-    <t>1、点击管理首页新增按钮进入新增页面
-2、新增页面的Title为必填项
-3、标题Title输入框支持最多输入100字</t>
   </si>
   <si>
     <t xml:space="preserve">1、页面显示：保存失败，Title不得为空
@@ -356,88 +216,137 @@
 3、PublishedDate的格式要求为:YY/MM/DD HH/MM/SS</t>
   </si>
   <si>
-    <t>1、点击管理首页新增按钮进入新增页面</t>
+    <t>管理首页-新闻列表-编辑</t>
+  </si>
+  <si>
+    <t>1、点击管理首页新增按钮进入新增页面
+2、新增页面的Title为必填项
+3、标题Title输入框支持最多输入100字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：为空；Content：缅怀革命烈士，向未来出发；PublishDate:2018/9/27 12:30:24；不勾选Is Show，点击保存按钮
+2、在标题Title输入框中输入101个字符
+3、在标题Title输入框中输入100个字符，点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新增页面的Title/Content/PublishedDate均为必填项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：缅怀；Content：缅怀革命烈士，向未来出发；PublishDate:为空；不勾选Is Show，点击保存按钮
+2、PublishDate:2018-9-27;2018/9/27;2018/9/27 09:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：输入99字符；
+Content：输入1999字符；
+PublishDate:输入2018/10/8 16:08:24；
+不勾选Is Show，点击保存按钮
+2、如上插入26条数据，在管理首页的查询框输入框内不输入任何关键字，点击查询按钮
+3、点击“下一页”按钮
+4、再次点击“下一页”按钮
+5、点击当前页的第1条新闻的删除按钮
+6、点击删除提示框的确认按钮
+7、点击当前页的第5条新闻的删除按钮
+8、点击删除提示框的取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.1、管理首页的新闻列表最后一行显示添加的记录
 1.2、新闻列表里的标题显示不完整用…代替
-1.3、数据库newsLists列表中存在添加的记录,且Status显示为N</t>
-  </si>
-  <si>
-    <t>1.1、管理首页的新闻列表最后一行显示添加的记录
-1.2、数据库newsLists列表中存在添加的记录,且Status显示为Y</t>
-  </si>
-  <si>
-    <t>管理首页-新闻列表-删除</t>
-  </si>
-  <si>
-    <t>管理首页-新闻列表-编辑</t>
-  </si>
-  <si>
-    <t>1-2、跳转回管理首页,新闻列表和数据库newsLists列表里的第26条数据没有改动
-3、页面显示：编辑失败，必填项不得为空</t>
-  </si>
-  <si>
-    <t>管理首页-上一页</t>
-  </si>
-  <si>
-    <t>管理首页-查询</t>
+1.3、数据库newsLists列表中存在添加的记录,且Status显示为N
+2、新闻列表第一页显示10条数据，“上一页”按钮置灰
+3、进入新闻列表第二页，显示10条数据
+4、进入新闻列表最后一页，显示6条数据，“下一页”按钮置灰
+5、页面显示:是否确认删除?
+6、第一条新闻被删除，当前页显示5条数据
+7、页面显示:是否确认删除?
+8、当前页仍然显示5条数据，没有数据被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增-查询-上/下一页-删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增-查询-上/下一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击管理首页新增按钮进入新增页面
+2、数据库里存在26条数据，不存在标题包含q关键字的新闻，存在6条标题包含“应采儿”关键字的新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击管理首页新增按钮进入新增页面
+1、查询输入框支持最多输入100字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：真；
+Content：!@#$%^&amp;*()_+ ；
+PublishDate:2018/10/8 00:00:00；
+勾选Is Show，点击保存按钮
+2、管理首页的查询框输入101个字符
+3、管理首页的查询框输入英文字母“q”，点击查询按钮
+4、在查询框输入关键字“应采儿”，点击查询按钮
+5、在查询框输入关键字“哈士奇”，不点击查询，直接点击下一页按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.1、管理首页的新闻列表最后一行显示添加的记录
+1.2、数据库newsLists列表中存在添加的记录,且Status显示为Y
+2、光标停留在第100个字后面，无法显示第101个字符
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">、列表消失，页面显示“您查询的记录不存在”
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4、新闻列表显示5条与应采儿相关的新闻且内容与数据库里前5条包含“应采儿”关键字的记录一致
+5、进入新闻列表第二页，显示1条与应采儿相关的新闻且内容与数据库里第6条包含“应采儿”关键字的记录一致</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中新闻列表的第1条新闻,点击编辑按钮
+2、检查编辑页面的Title/Content/PublishedDate/IsShow的内容
+3、不修改任何内容,点击保存
+4、不修改任何内容,点击取消
+5、清空所有已存在的数据,点击保存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、数据库里存在26条新闻数据
-2、新闻列表每一页显示10条数据，一共有3页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、当前页面是新闻列表的第一页
-2、点击“下一页”按钮进入新闻列表第二页，再点击“上一页”按钮
-3、点击“下一页”按钮至第三页，连续点击2次“上一页”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、“上一页”按钮置灰
-2、回到新闻列表第一页
-3、页面和页码刷新2次至第一页，“上一页”按钮置灰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理首页-下一页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、当前页面是新闻列表的第三页
-2、点击“上一页”按钮进入新闻列表第二页，再点击“下一页”按钮
-3、点击“上一页”按钮至第一页，连续点击2次“下一页”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、“下一页”按钮置灰
-2、回到新闻列表第三页
-3、页面和页码刷新2次至第单页，“下一页”按钮置灰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、数据库里新闻标题或内容包含关键字“一”的数据有12条
-2、数据库里新闻标题或内容包含关键字“，”的数据有11条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在管理首页查询输入框里输入关键字“一”，点击查询按钮
-2、点击“下一页”
-3、在管理首页查询输入框里输入关键字“，”，不点击查询按钮，直接点击上一页
-4、点击查询按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、新闻列表第一页显示10条新闻标题或内容包含关键字“一”的数据
-2、显示2条新闻标题或内容包含关键字“一”的数据
-3、与预期结果1保持一致
-4、显示10条新闻标题或内容包含关键字“，”的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理首页-查询-上/下一页</t>
+2、新闻列表里的每条新闻都匹配一个编辑按钮
+3、编辑页面的Title/Content/PublishedDate均不得为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、进入第1条新闻的编辑页面
+2、与数据库里第1条新闻的数据一致
+3-4、跳转回管理首页,新闻列表和数据库newsLists列表里的第26条数据没有改动
+5、页面显示：编辑失败，必填项不得为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +367,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -805,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -840,371 +757,208 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="162" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>23</v>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Manage网页测试用例.xlsx
+++ b/Manage网页测试用例.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Liself Projects\MyJavaTraining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LiselfTraining\MyJavaTraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,122 +47,6 @@
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增页面-标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增页面-正文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增页面-发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、页面显示：保存失败，PublishedDate不得为空
-2、页面显示：保存失败，PublishedDate格式为:YY/MM/DD HH/MM/SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑页面-标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑页面-正文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新闻列表里的第2条新闻的编辑按钮进入编辑页面
-2、编辑页面的Title不得为空
-3、标题Title输入框支持最多输入100字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Content：删除原有数据，其它必填项内容不变,点击保存按钮
-2、在正文Content输入框中输入2001个字符
-3、在正文Content输入框中输入2000个字符,点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：删除原有数据，其它必填项内容不变,点击保存按钮
-2、在标题Title输入框中输入101个字符
-3、在标题Title输入框中输入100个字符,点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、PublishedDate：删除原有数据，其它必填项内容不变,点击保存按钮
-2、PublishDate输入:2018-9-27;2018/9/27;2018/9/27 09:08…,点击保存按钮
-3、PublishDate输入:2018/10/8 19:22:00,点击保存按钮
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑页面-发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新闻列表里的第1条新闻的编辑按钮进入编辑页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑页面-发布状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：缅怀革命烈士；Content：为空；PublishDate:2018/9/27 12:30:24；勾选Is Show，点击保存按钮
-2、在正文Content输入框中输入2001个字符
-3、在正文Content输入框中输入2000个字符，点击保存按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、页面显示：编辑失败，Title不得为空
-2、输入框无法显示第101个字符
-3.1、保存成功,新闻列表和数据库newsLists列表里第2条新闻的标题修改为输入的100个字符
-3.2、新闻列表里的标题显示不完整用…代替</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1、保存成功,新闻列表和数据库newsLists列表里第1条新闻的标题、内容、发布时间，发布状态与编辑的一致
-1.2、新闻列表里的标题显示不完整用…代替
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新闻列表里的第25条新闻的编辑按钮进入编辑页面
-2、新增页面的Content为必填项
-3、正文Content输入框支持最多输入2000字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、页面显示：编辑失败，Content不得为空
-2、输入框无法显示第2001个字符
-3、保存成功,新闻列表和数据库newsLists列表里第25条新闻的内容修改为输入的2000个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新闻列表里的第13条新闻的编辑按钮进入编辑页面
-2、新增页面的PublishedDate为必填项
-3、PublishedDate的格式要求为:YY/MM/DD HH/MM/SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、页面显示：编辑失败，PublishedDate不得为空
-2、页面显示：编辑失败，PublishedDate格式为:YY/MM/DD HH/MM/SS
-3、保存成功,新闻列表和数据库newsLists列表里第13条新闻的发布时间修改为2018/10/8 19:22:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击新闻列表里的第26条新闻的编辑按钮进入编辑页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：重新输入99字符；
-Content：重新输入1999字符；
-PublishDate:2018/10/8 22:21:24；
-Is Show:当前状态是勾选则去勾选，当前状态未勾选则勾选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,57 +70,10 @@
 3、不填写任何信息，点击取消</t>
   </si>
   <si>
-    <t>1.1、跳转至新增页面；
-1.2、Title/Content/PublishedDate/Is Show标题前存在必填项标识
-2、页面显示：保存失败，请输入新增内容
-3、跳转回管理首页,新闻列表里没有增添任何纪录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、页面显示：保存失败，Title不得为空
-2、输入框无法显示第101个字符
-3.1、管理首页的新闻列表和数据库的newsLists列表的最后一行显示添加的记录
-3.2、新闻列表内的标题显示不完整用…代替
-</t>
-  </si>
-  <si>
-    <t>1、点击管理首页新增按钮进入新增页面
-2、新增页面的Content为必填项
-3、正文Content输入框支持最多输入2000字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、页面显示：保存失败，Content不得为空
-2、输入框无法显示第2001个字符
-3.1、管理首页的新闻列表和数据库的newsLists列表的最后一行显示添加的记录
-3.2、点击新增数据的编辑按钮，Content显示与添加的内容一致
-</t>
-  </si>
-  <si>
-    <t>1、点击管理首页新增按钮进入新增页面
-2、新增页面的PublishedDate为必填项
-3、PublishedDate的格式要求为:YY/MM/DD HH/MM/SS</t>
-  </si>
-  <si>
     <t>管理首页-新闻列表-编辑</t>
   </si>
   <si>
-    <t>1、点击管理首页新增按钮进入新增页面
-2、新增页面的Title为必填项
-3、标题Title输入框支持最多输入100字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：为空；Content：缅怀革命烈士，向未来出发；PublishDate:2018/9/27 12:30:24；不勾选Is Show，点击保存按钮
-2、在标题Title输入框中输入101个字符
-3、在标题Title输入框中输入100个字符，点击保存按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、新增页面的Title/Content/PublishedDate均为必填项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：缅怀；Content：缅怀革命烈士，向未来出发；PublishDate:为空；不勾选Is Show，点击保存按钮
-2、PublishDate:2018-9-27;2018/9/27;2018/9/27 09:08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,17 +119,6 @@
   <si>
     <t>1、点击管理首页新增按钮进入新增页面
 1、查询输入框支持最多输入100字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Title：真；
-Content：!@#$%^&amp;*()_+ ；
-PublishDate:2018/10/8 00:00:00；
-勾选Is Show，点击保存按钮
-2、管理首页的查询框输入101个字符
-3、管理首页的查询框输入英文字母“q”，点击查询按钮
-4、在查询框输入关键字“应采儿”，点击查询按钮
-5、在查询框输入关键字“哈士奇”，不点击查询，直接点击下一页按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -343,10 +169,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.1、跳转至新增页面；
+1.2、Title/Content/PublishedDate/Is Show标题前存在必填项标识
+2、页面显示：保存失败，每个输入框后面提示:必填项不能为空
+3、跳转回管理首页,新闻列表里没有增添任何纪录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、光标停留在第100个字符后,无法显示第101个字符
+2、光标停留在第200个字符后,无法显示第2001个字符
+3、页面显示：保存失败，PublishedDate输入框后面提示:日期格式为:YY/MM/DD HH/MM/SS
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Title：3；
+Content：!@#$%^&amp;*()_+ ；
+PublishDate:2018/10/8 00:00:00；
+勾选Is Show，点击保存按钮
+2、管理首页的查询框输入101个字符
+3、管理首页的查询框输入英文字母“q”，点击查询按钮
+4、在查询框输入关键字“应采儿”，点击查询按钮
+5、在查询框输入关键字“哈士奇”，不点击查询，直接点击下一页按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、进入第1条新闻的编辑页面
 2、与数据库里第1条新闻的数据一致
 3-4、跳转回管理首页,新闻列表和数据库newsLists列表里的第26条数据没有改动
-5、页面显示：编辑失败，必填项不得为空</t>
+5、编辑失败，每个输入框后面提示必填项不得为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在标题Title输入框中输入101个字符
+2、在正文Content输入框中输入2001个字符
+3、PublishDate输入不符合条件格式的日期,点击保存按扭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击管理首页新增按钮进入新增页面或者点击新闻列表里任意1条新闻的编辑按钮进入编辑页面
+2、标题Title输入框支持最多输入100字;Title输入框支持最多输入2000字;PublishedDate的格式要求为:YY/MM/DD HH/MM/SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增/编辑页面-标题/正文/发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击新闻列表里的第1条新闻的编辑按钮进入编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面-发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,208 +632,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="162" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="7" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="E7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="162" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
